--- a/data/trans_camb/P31_2_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P31_2_R-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>4,78</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>-4,59</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,21</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,35</t>
+          <t>-1,11</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-1,36</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4,38</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-2,77</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 4,72</t>
+          <t>-8,25; 7,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 9,39</t>
+          <t>-1,62; 12,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 8,07</t>
+          <t>-13,26; 4,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,98; 11,74</t>
+          <t>-9,16; 5,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 4,57</t>
+          <t>-2,75; 10,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,59; 9,19</t>
+          <t>-10,11; 6,2</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-6,99; 4,04</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-0,37; 9,61</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-9,2; 3,76</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,48%</t>
+          <t>-1,31%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>-5,35%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>-1,94%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>-1,31%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-1,6%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>5,15%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-3,26%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 5,62</t>
+          <t>-9,2; 9,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 11,31</t>
+          <t>-1,86; 14,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 10,12</t>
+          <t>-14,95; 5,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,16; 14,68</t>
+          <t>-10,47; 7,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 5,58</t>
+          <t>-3,09; 12,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,87; 11,17</t>
+          <t>-11,62; 7,68</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-8,01; 4,89</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-0,43; 11,62</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-10,48; 4,59</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,38</t>
+          <t>3,87</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>4,86</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,4</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>10,07</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,15</t>
+          <t>4,98</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3,59</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>7,51</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3,49</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 10,64</t>
+          <t>-5,33; 12,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 9,37</t>
+          <t>-4,62; 13,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 8,44</t>
+          <t>-7,69; 10,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 11,72</t>
+          <t>-4,86; 12,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 8,11</t>
+          <t>3,15; 17,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 8,56</t>
+          <t>-2,43; 13,14</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-2,46; 9,88</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2,08; 13,77</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-3,09; 9,26</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>12,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>5,97%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4,3%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>9,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>4,17%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 13,32</t>
+          <t>-6,09; 15,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 11,63</t>
+          <t>-5,09; 16,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 10,36</t>
+          <t>-8,74; 13,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,24; 14,39</t>
+          <t>-5,53; 16,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 9,85</t>
+          <t>3,87; 23,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 10,23</t>
+          <t>-2,77; 17,03</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-2,77; 12,34</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2,48; 17,28</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-3,57; 11,48</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,59</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,16</t>
+          <t>-10,02</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,76</t>
+          <t>6,94</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,07</t>
+          <t>7,84</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>12,79</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5,68</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-4,53</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>10,09</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-15,29; 9,82</t>
+          <t>-8,4; 18,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,27; 9,68</t>
+          <t>-29,95; 8,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 17,31</t>
+          <t>0,0; 23,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 14,75</t>
+          <t>-7,29; 23,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 9,42</t>
+          <t>-15,42; 18,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 8,2</t>
+          <t>0,07; 28,21</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-4,1; 17,44</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-17,5; 9,32</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2,16; 19,96</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,85%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-2,38%</t>
+          <t>-10,76%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>9,58%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>15,63%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>6,5%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-5,18%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>11,54%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-16,08; 11,58</t>
+          <t>-8,49; 23,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-15,05; 11,65</t>
+          <t>-31,22; 10,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 22,75</t>
+          <t>0,0; 30,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 19,28</t>
+          <t>-7,84; 34,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 11,3</t>
+          <t>-17,17; 25,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 9,86</t>
+          <t>0,28; 42,08</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-4,58; 22,15</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-19,41; 11,21</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>2,4; 25,92</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,95</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>6,11</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,33</t>
+          <t>2,76</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1,37</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>4,73</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1,17</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 4,85</t>
+          <t>-4,05; 6,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 6,9</t>
+          <t>-2,08; 8,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 6,78</t>
+          <t>-6,15; 5,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,23; 9,54</t>
+          <t>-4,29; 6,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 4,78</t>
+          <t>1,35; 10,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,37; 7,04</t>
+          <t>-2,55; 7,86</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-2,73; 5,09</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1,33; 8,52</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-2,99; 4,86</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
+          <t>-0,69%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1,56%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>7,29%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>3,3%</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>7,05%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>2,21%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>5,06%</t>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1,62%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>5,58%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1,38%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 5,74</t>
+          <t>-4,57; 8,39</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 8,13</t>
+          <t>-2,23; 10,3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 8,19</t>
+          <t>-7,03; 6,8</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,6; 11,66</t>
+          <t>-4,96; 8,18</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 5,68</t>
+          <t>1,61; 13,37</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,6; 8,38</t>
+          <t>-2,99; 9,63</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-3,17; 6,09</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1,52; 10,27</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-3,43; 5,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
